--- a/RingCentralIntern/timesheet2.xlsx
+++ b/RingCentralIntern/timesheet2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23960" windowHeight="15080"/>
+    <workbookView xWindow="2020" yWindow="240" windowWidth="23960" windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Invoice" sheetId="1" r:id="rId1"/>
@@ -1316,7 +1316,7 @@
   <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1547,7 +1547,9 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="20" customHeight="1">
-      <c r="B21" s="37"/>
+      <c r="B21" s="37">
+        <v>88</v>
+      </c>
       <c r="C21" s="32" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1562,7 @@
       </c>
       <c r="I21" s="41">
         <f t="shared" ref="I21:I34" si="0">IF(H21,H21*B21,"")</f>
-        <v>0</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="20" customHeight="1">
@@ -1738,9 +1740,9 @@
       <c r="H35" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="43" t="str">
+      <c r="I35" s="43">
         <f>IF(SUM(I21:I34),SUM(I21:I34),"")</f>
-        <v/>
+        <v>1760</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="20" customHeight="1">
@@ -1777,9 +1779,9 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="49"/>
-      <c r="I38" s="50" t="str">
+      <c r="I38" s="50">
         <f>IF(SUM(I35),SUM(I35:I37),"")</f>
-        <v/>
+        <v>1760</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="12" customHeight="1">

--- a/RingCentralIntern/timesheet2.xlsx
+++ b/RingCentralIntern/timesheet2.xlsx
@@ -1316,7 +1316,7 @@
   <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1406,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="8">
-        <v>68001</v>
+        <v>68002</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="14" customHeight="1">
